--- a/biology/Botanique/Cortese_di_Gavi_(DOCG)/Cortese_di_Gavi_(DOCG).xlsx
+++ b/biology/Botanique/Cortese_di_Gavi_(DOCG)/Cortese_di_Gavi_(DOCG).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cortese di Gavi (appelé aussi Gavi ou Gavi di Gavi) est un vin blanc italien de la région Piémont doté d'une appellation DOCG depuis le 10 août 1998. La zone était DOC déjà à partir du 26/06/1974. Seuls ont droit à la DOCG les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Alexandrie dans les 11 communes de Bosio, Capriata d'Orba, Carrosio, Francavilla Bisio, Gavi, Novi Ligure, Parodi Ligure, Pasturana, San Cristoforo, Serravalle Scrivia et Tassarolo. La superficie plantée en vigne est de 984.30 hectares.
 Voir aussi les articles Cortese di Gavi frizzante et Cortese di Gavi spumante.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille plus ou moins clair
 odeur : fin, délicat, caractéristique
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,7 +622,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitello Tonato et purée de pommes de terre à l'huile d'olive et aux câpres[réf. souhaitée].
 </t>
@@ -635,7 +655,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
